--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AVERAGE_10_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>-0.3959289614101706</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>-0.3959289614101706</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>-0.3959289614101706</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>-0.3959289614101706</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>-0.3959289614101706</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>-0.3959289614101706</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>-0.3959289614101706</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>-0.3959289614101706</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>-0.3959289614101706</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>-0.3959289614101706</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>39356</v>
+        <v>39401</v>
       </c>
       <c r="B12">
         <v>0.9722121999660956</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>39448</v>
+        <v>39493</v>
       </c>
       <c r="B13">
         <v>0.9722121999660956</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>39539</v>
+        <v>39583</v>
       </c>
       <c r="B14">
         <v>0.9722121999660956</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>39630</v>
+        <v>39675</v>
       </c>
       <c r="B15">
         <v>0.9722121999660956</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>39722</v>
+        <v>39767</v>
       </c>
       <c r="B16">
         <v>0.9722121999660956</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>39814</v>
+        <v>39859</v>
       </c>
       <c r="B17">
         <v>0.9722121999660956</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>39904</v>
+        <v>39948</v>
       </c>
       <c r="B18">
         <v>0.9722121999660956</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>39995</v>
+        <v>40040</v>
       </c>
       <c r="B19">
         <v>0.9722121999660956</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>40087</v>
+        <v>40132</v>
       </c>
       <c r="B20">
         <v>0.9722121999660956</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>40179</v>
+        <v>40224</v>
       </c>
       <c r="B21">
         <v>0.9722121999660956</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="C22">
         <v>1.040360252110412</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="C23">
         <v>1.040360252110412</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="D24">
         <v>1.186319327957052</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="D25">
         <v>1.186319327957052</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="E26">
         <v>-0.2660134161107835</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="E27">
         <v>-0.2660134161107835</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="F28">
         <v>0.008457773690274539</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="F29">
         <v>0.008457773690274539</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G30">
         <v>-0.1748391376106597</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G31">
         <v>-0.1748391376106597</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H32">
         <v>-0.02992510513992812</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H33">
         <v>-0.02992510513992812</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I34">
         <v>0.788994393776747</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I35">
         <v>0.788994393776747</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J36">
         <v>0.7447759234522124</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J37">
         <v>0.7447759234522124</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K38">
         <v>0.7595552754760334</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K39">
         <v>0.7595552754760334</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L40">
         <v>1.078857382508534</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L41">
         <v>1.078857382508534</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M42">
         <v>0.03863983687608367</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M43">
         <v>0.03863983687608367</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N44">
         <v>0.04086665069358743</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N45">
         <v>0.04086665069358743</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O46">
         <v>0.57127750206904</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O47">
         <v>0.57127750206904</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P48">
         <v>0.2508019866888844</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P49">
         <v>0.2508019866888844</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q50">
         <v>0.4371297260253897</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q51">
         <v>0.4371297260253897</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R52">
         <v>0.6528590764253067</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R53">
         <v>0.6528590764253067</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S54">
         <v>0.537031014943615</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S55">
         <v>0.537031014943615</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="56" spans="1:34">
       <c r="A56" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T56">
         <v>-0.1560259859343148</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="57" spans="1:34">
       <c r="A57" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T57">
         <v>-0.1560259859343148</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="58" spans="1:34">
       <c r="A58" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U58">
         <v>0.5764924424720277</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="59" spans="1:34">
       <c r="A59" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U59">
         <v>0.5764924424720277</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V60">
         <v>0.6154627627243088</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V61">
         <v>0.6154627627243088</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="62" spans="1:34">
       <c r="A62" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W62">
         <v>0.6326574953284861</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="63" spans="1:34">
       <c r="A63" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X63">
         <v>0.8823515161588972</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="64" spans="1:34">
       <c r="A64" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y64">
         <v>0.6909516491216422</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="65" spans="1:43">
       <c r="A65" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z65">
         <v>0.6014155406264573</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="66" spans="1:43">
       <c r="A66" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA66">
         <v>0.7726760512483437</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="67" spans="1:43">
       <c r="A67" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB67">
         <v>0.9579169467418751</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="68" spans="1:43">
       <c r="A68" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC68">
         <v>0.8454848003766614</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD69">
         <v>0.6712374251007134</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="70" spans="1:43">
       <c r="A70" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE70">
         <v>0.6313470108107424</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="71" spans="1:43">
       <c r="A71" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF71">
         <v>1.015171985964854</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="72" spans="1:43">
       <c r="A72" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG72">
         <v>0.5980655322198769</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="73" spans="1:43">
       <c r="A73" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH73">
         <v>0.3857837669426782</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AVERAGE_10_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS2">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT2">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU2">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV2">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW2">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX2">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY2">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ2">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA2">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS3">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT3">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU3">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV3">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW3">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX3">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY3">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ3">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA3">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS4">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT4">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU4">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV4">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW4">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX4">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY4">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ4">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA4">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS5">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT5">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU5">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV5">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW5">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX5">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY5">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ5">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA5">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS6">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT6">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU6">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV6">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW6">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX6">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY6">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ6">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA6">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS7">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT7">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU7">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV7">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW7">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX7">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY7">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ7">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA7">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS8">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT8">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU8">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV8">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW8">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX8">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY8">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ8">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA8">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS9">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT9">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU9">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV9">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW9">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX9">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY9">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ9">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA9">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS10">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT10">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU10">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV10">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW10">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX10">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY10">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ10">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA10">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS11">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT11">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU11">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV11">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW11">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX11">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY11">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ11">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA11">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1965,7 +1965,7 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG63">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
     </row>
     <row r="64" spans="1:34">
@@ -1997,10 +1997,10 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG64">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH64">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -2029,13 +2029,13 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG65">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH65">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI65">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -2061,16 +2061,16 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG66">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH66">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI66">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ66">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -2093,19 +2093,19 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG67">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH67">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI67">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ67">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK67">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -2125,22 +2125,22 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG68">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH68">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI68">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ68">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK68">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL68">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
     </row>
     <row r="69" spans="1:43">
@@ -2157,25 +2157,25 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG69">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH69">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI69">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ69">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK69">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL69">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM69">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -2189,28 +2189,28 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG70">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH70">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI70">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ70">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK70">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL70">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM70">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN70">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -2221,31 +2221,31 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG71">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH71">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI71">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ71">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK71">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL71">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM71">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN71">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO71">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -2253,34 +2253,34 @@
         <v>44880</v>
       </c>
       <c r="AG72">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH72">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI72">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ72">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK72">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL72">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM72">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN72">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO72">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP72">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -2288,34 +2288,34 @@
         <v>44972</v>
       </c>
       <c r="AH73">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI73">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ73">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK73">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL73">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM73">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN73">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO73">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP73">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ73">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39356</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:53">
+      <c r="BB1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39401</v>
       </c>
@@ -541,7 +544,7 @@
         <v>0.9722121999660956</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39493</v>
       </c>
@@ -549,7 +552,7 @@
         <v>0.9722121999660956</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39583</v>
       </c>
@@ -560,7 +563,7 @@
         <v>1.040360252110412</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39675</v>
       </c>
@@ -571,7 +574,7 @@
         <v>1.040360252110412</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39767</v>
       </c>
@@ -585,7 +588,7 @@
         <v>1.186319327957052</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39859</v>
       </c>
@@ -599,7 +602,7 @@
         <v>1.186319327957052</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>39948</v>
       </c>
@@ -616,7 +619,7 @@
         <v>-0.2660134161107835</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40040</v>
       </c>
@@ -633,7 +636,7 @@
         <v>-0.2660134161107835</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40132</v>
       </c>
@@ -653,7 +656,7 @@
         <v>0.008457773690274539</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40224</v>
       </c>
@@ -673,7 +676,7 @@
         <v>0.008457773690274539</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40313</v>
       </c>
@@ -693,7 +696,7 @@
         <v>-0.1748391376106597</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40405</v>
       </c>
@@ -713,7 +716,7 @@
         <v>-0.1748391376106597</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40497</v>
       </c>
@@ -733,7 +736,7 @@
         <v>-0.02992510513992812</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40589</v>
       </c>
@@ -753,7 +756,7 @@
         <v>-0.02992510513992812</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40678</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>0.08502695069190742</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45153</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>-0.391851919140764</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45245</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>-0.4536791551100736</v>
       </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45337</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>-0.9865065778580956</v>
       </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45427</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>-0.362728707909713</v>
       </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45519</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>-0.6603918655239497</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45611</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>-1.07664106387928</v>
       </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45703</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>-0.6690268876203433</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45792</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>-0.5090375453879602</v>
       </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>45884</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>-0.4294655397123265</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>45976</v>
       </c>
@@ -2349,8 +2352,11 @@
       <c r="BA74">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="75" spans="1:53">
+      <c r="BB74">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46068</v>
       </c>
@@ -2378,8 +2384,11 @@
       <c r="BA75">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="76" spans="1:53">
+      <c r="BB75">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46157</v>
       </c>
@@ -2404,8 +2413,11 @@
       <c r="BA76">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="77" spans="1:53">
+      <c r="BB76">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46249</v>
       </c>
@@ -2427,8 +2439,11 @@
       <c r="BA77">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="78" spans="1:53">
+      <c r="BB77">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46341</v>
       </c>
@@ -2447,8 +2462,11 @@
       <c r="BA78">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="79" spans="1:53">
+      <c r="BB78">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46433</v>
       </c>
@@ -2464,8 +2482,11 @@
       <c r="BA79">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="80" spans="1:53">
+      <c r="BB79">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46522</v>
       </c>
@@ -2478,8 +2499,11 @@
       <c r="BA80">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="81" spans="1:53">
+      <c r="BB80">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46614</v>
       </c>
@@ -2489,13 +2513,27 @@
       <c r="BA81">
         <v>-0.4294655397123265</v>
       </c>
-    </row>
-    <row r="82" spans="1:53">
+      <c r="BB81">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46706</v>
       </c>
       <c r="BA82">
         <v>-0.4294655397123265</v>
+      </c>
+      <c r="BB82">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46798</v>
+      </c>
+      <c r="BB83">
+        <v>-0.5302962882008586</v>
       </c>
     </row>
   </sheetData>
